--- a/allocations.xlsx
+++ b/allocations.xlsx
@@ -1546,7 +1546,7 @@
         <v>43091.75798611111</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1558,7 +1558,7 @@
         <v>21</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
